--- a/Infoinput.xlsx
+++ b/Infoinput.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dyrian\github\Marta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE836C04-79D2-482D-9859-0A6623DA7E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3657D7A-BC12-431F-ADDD-FAF80C4B17E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8325" yWindow="2535" windowWidth="19710" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
   <si>
     <t>INFOINPUT</t>
   </si>
@@ -101,12 +101,6 @@
     <t>Wähle eine Kasualie aus</t>
   </si>
   <si>
-    <t>PVNAME04</t>
-  </si>
-  <si>
-    <t>PNNAME04</t>
-  </si>
-  <si>
     <t>Anzahl</t>
   </si>
   <si>
@@ -143,28 +137,34 @@
     <t>van Heide</t>
   </si>
   <si>
-    <t>Pate</t>
-  </si>
-  <si>
     <t>Pia</t>
   </si>
   <si>
     <t>evangelisch</t>
   </si>
   <si>
-    <t>Zeuge</t>
-  </si>
-  <si>
     <t>Zora</t>
   </si>
   <si>
     <t>Patin</t>
   </si>
   <si>
-    <t>Patrick</t>
-  </si>
-  <si>
     <t>"Yeah ich werde getauft … super Sache, spricht der Herr"</t>
+  </si>
+  <si>
+    <t>Zeuge1</t>
+  </si>
+  <si>
+    <t>Zorro</t>
+  </si>
+  <si>
+    <t>Zeuge2</t>
+  </si>
+  <si>
+    <t>Pate2</t>
+  </si>
+  <si>
+    <t>Peter</t>
   </si>
 </sst>
 </file>
@@ -568,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,7 +639,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D7" s="2"/>
     </row>
@@ -658,7 +658,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -683,7 +683,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
@@ -700,7 +700,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2"/>
     </row>
@@ -713,7 +713,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
@@ -721,7 +721,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C17" s="2"/>
     </row>
@@ -730,7 +730,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -748,12 +748,12 @@
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
@@ -761,10 +761,10 @@
         <v>1</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
@@ -777,7 +777,7 @@
         <v>12</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -795,10 +795,10 @@
         <v>1</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -808,7 +808,7 @@
         <v>12</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -826,10 +826,10 @@
         <v>1</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -839,7 +839,7 @@
         <v>12</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -857,10 +857,10 @@
         <v>1</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -869,7 +869,9 @@
       <c r="A31" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="9"/>
+      <c r="B31" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -904,7 +906,7 @@
         <v>13</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="21" x14ac:dyDescent="0.35">
@@ -912,7 +914,7 @@
         <v>18</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -922,7 +924,7 @@
         <v>9</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -946,7 +948,7 @@
         <v>11</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
